--- a/packet-tracer-file-nether.xlsx
+++ b/packet-tracer-file-nether.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="342">
   <si>
     <t>Appliance</t>
   </si>
@@ -1045,6 +1045,9 @@
   </si>
   <si>
     <t>f0/15</t>
+  </si>
+  <si>
+    <t>192.168.5.132</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1139,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1438,10 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <pane ySplit="4815" topLeftCell="A146" activePane="bottomLeft"/>
-      <selection activeCell="D55" sqref="D55"/>
-      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>14</v>
@@ -4785,6 +4797,9 @@
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4810,7 +4825,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="A7:B7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5017,7 +5032,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
